--- a/practicas/practica_rl.xlsx
+++ b/practicas/practica_rl.xlsx
@@ -249,7 +249,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -450,11 +450,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34043457"/>
-        <c:axId val="7045195"/>
+        <c:axId val="16490228"/>
+        <c:axId val="77422689"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34043457"/>
+        <c:axId val="16490228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,12 +482,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7045195"/>
+        <c:crossAx val="77422689"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7045195"/>
+        <c:axId val="77422689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +524,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34043457"/>
+        <c:crossAx val="16490228"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -615,7 +615,7 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6:H8"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F6:H8 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="1" sqref="F6:H8 J14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
